--- a/tests/data/tables/generic.genotypes.10.xlsx
+++ b/tests/data/tables/generic.genotypes.10.xlsx
@@ -13,6 +13,7 @@
     <sheet name="sorted" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="edges" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="distance" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="unsorted" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="26">
   <si>
     <t xml:space="preserve">Trajectory</t>
   </si>
@@ -62,34 +63,34 @@
     <t xml:space="preserve">Genotype</t>
   </si>
   <si>
+    <t xml:space="preserve">genotype-green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genotype-purple</t>
+  </si>
+  <si>
     <t xml:space="preserve">genotype-red</t>
   </si>
   <si>
+    <t xml:space="preserve">genotype-orchid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genotype-sienna</t>
+  </si>
+  <si>
     <t xml:space="preserve">genotype-orange</t>
   </si>
   <si>
-    <t xml:space="preserve">genotype-green</t>
+    <t xml:space="preserve">genotype-gold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genotype-steelblue</t>
   </si>
   <si>
     <t xml:space="preserve">genotype-aqua</t>
   </si>
   <si>
-    <t xml:space="preserve">genotype-orchid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">genotype-sienna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">genotype-gold</t>
-  </si>
-  <si>
     <t xml:space="preserve">genotype-teal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">genotype-steelblue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">genotype-purple</t>
   </si>
   <si>
     <t xml:space="preserve">Identity</t>
@@ -208,9 +209,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>583920</xdr:colOff>
+      <xdr:colOff>583200</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>102600</xdr:rowOff>
+      <xdr:rowOff>101880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -224,7 +225,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1416240" y="1869840"/>
-          <a:ext cx="7048440" cy="5873040"/>
+          <a:ext cx="7047720" cy="5872320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -250,9 +251,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>40680</xdr:colOff>
+      <xdr:colOff>39960</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>21240</xdr:rowOff>
+      <xdr:rowOff>20520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -266,7 +267,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2179800" y="1950840"/>
-          <a:ext cx="7048440" cy="5873040"/>
+          <a:ext cx="7047720" cy="5872320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -285,16 +286,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>903960</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>109080</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>511560</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>141480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>333000</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>129960</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>244080</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>161640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -307,8 +308,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2042280" y="1246680"/>
-          <a:ext cx="7048440" cy="5873040"/>
+          <a:off x="2766960" y="791640"/>
+          <a:ext cx="7047720" cy="5872320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -712,7 +713,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+      <selection pane="topLeft" activeCell="T24" activeCellId="0" sqref="T24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -769,22 +770,22 @@
         <v>0</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>0.45</v>
+        <v>0.7</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -795,28 +796,28 @@
         <v>0</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>0.01</v>
+        <v>0.7</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -833,22 +834,22 @@
         <v>0</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I4" s="1" t="n">
         <v>0.7</v>
       </c>
-      <c r="G4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="J4" s="1" t="n">
-        <v>1</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -874,13 +875,13 @@
         <v>0</v>
       </c>
       <c r="H5" s="1" t="n">
-        <v>0.07</v>
+        <v>0.05</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="J5" s="1" t="n">
-        <v>0.01</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -888,31 +889,31 @@
         <v>16</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="G6" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H6" s="1" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="I6" s="1" t="n">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -920,19 +921,19 @@
         <v>17</v>
       </c>
       <c r="B7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="D7" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="C7" s="1" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="D7" s="1" t="n">
-        <v>0.2</v>
-      </c>
       <c r="E7" s="1" t="n">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>0</v>
@@ -999,16 +1000,16 @@
         <v>0</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>0</v>
+        <v>0.07</v>
       </c>
       <c r="H9" s="1" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="I9" s="1" t="n">
         <v>0</v>
       </c>
       <c r="J9" s="1" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1031,16 +1032,16 @@
         <v>0</v>
       </c>
       <c r="G10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1" t="n">
         <v>0.07</v>
       </c>
-      <c r="H10" s="1" t="n">
-        <v>0.06</v>
-      </c>
       <c r="I10" s="1" t="n">
         <v>0</v>
       </c>
       <c r="J10" s="1" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1060,19 +1061,19 @@
         <v>0</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="H11" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
@@ -1095,7 +1096,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1138,7 +1139,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>0</v>
@@ -1170,7 +1171,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>0</v>
@@ -1202,7 +1203,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>0</v>
@@ -1234,7 +1235,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>0</v>
@@ -1266,7 +1267,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>0.1</v>
@@ -1298,7 +1299,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>0</v>
@@ -1362,7 +1363,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>0</v>
@@ -1394,7 +1395,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>0</v>
@@ -1426,7 +1427,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>0</v>
@@ -1475,7 +1476,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1495,23 +1496,23 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>24</v>
@@ -1519,23 +1520,23 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>24</v>
@@ -1551,26 +1552,26 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1995,4 +1996,383 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:J11"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H1" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="I1" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="J1" s="0" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>